--- a/ronavac_data.xlsx
+++ b/ronavac_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\SoapBar\Documents\Python\rona\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF3D2902-CA50-4E30-A866-54B0FF84C0C1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7698C087-B886-4CD4-9ADD-05FF5C3F60A2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3570" yWindow="2595" windowWidth="15375" windowHeight="7875" xr2:uid="{4CDF3E2D-DBF0-4044-AE06-469E682F427D}"/>
+    <workbookView xWindow="3615" yWindow="2700" windowWidth="15375" windowHeight="7875" xr2:uid="{4CDF3E2D-DBF0-4044-AE06-469E682F427D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Date</t>
   </si>
@@ -53,15 +53,19 @@
   <si>
     <t>Daily 2ds</t>
   </si>
+  <si>
+    <t>https://www.england.nhs.uk/statistics/statistical-work-areas/covid-19-vaccinations/</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,6 +98,14 @@
       <color rgb="FF000000"/>
       <name val="Verdana"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -147,12 +159,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -184,9 +198,16 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="Comma 2" xfId="1" xr:uid="{1B531170-9C6C-4A39-964C-113A21F47E29}"/>
+    <cellStyle name="Comma 3" xfId="4" xr:uid="{D5C3EF3E-7131-469C-BF89-EE89205C3861}"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Hyperlink 2" xfId="2" xr:uid="{FBE44B3B-0D96-48BC-8348-B937080B663E}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -2637,10 +2658,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DC964A1-A770-4E33-BB58-0E8E87280BEE}">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="A17" sqref="A17:A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2671,6 +2692,9 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="H1" s="19" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
@@ -2683,7 +2707,7 @@
         <v>374613</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:D17" si="0">SUM(B2:C2)</f>
+        <f t="shared" ref="D2:D18" si="0">SUM(B2:C2)</f>
         <v>2333764</v>
       </c>
     </row>
@@ -3036,9 +3060,27 @@
         <v>1326</v>
       </c>
     </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>43856</v>
+      </c>
+      <c r="B18" s="21">
+        <v>6221850</v>
+      </c>
+      <c r="C18" s="21">
+        <v>444011</v>
+      </c>
+      <c r="D18" s="20">
+        <f t="shared" si="0"/>
+        <v>6665861</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H1" r:id="rId1" xr:uid="{138726B2-93E9-4731-99AB-4B12825ED93B}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/ronavac_data.xlsx
+++ b/ronavac_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\SoapBar\Documents\Python\rona\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7698C087-B886-4CD4-9ADD-05FF5C3F60A2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF3D2902-CA50-4E30-A866-54B0FF84C0C1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3615" yWindow="2700" windowWidth="15375" windowHeight="7875" xr2:uid="{4CDF3E2D-DBF0-4044-AE06-469E682F427D}"/>
+    <workbookView xWindow="3570" yWindow="2595" windowWidth="15375" windowHeight="7875" xr2:uid="{4CDF3E2D-DBF0-4044-AE06-469E682F427D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Date</t>
   </si>
@@ -53,19 +53,15 @@
   <si>
     <t>Daily 2ds</t>
   </si>
-  <si>
-    <t>https://www.england.nhs.uk/statistics/statistical-work-areas/covid-19-vaccinations/</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,14 +94,6 @@
       <color rgb="FF000000"/>
       <name val="Verdana"/>
       <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -159,14 +147,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -198,16 +184,9 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="3">
     <cellStyle name="Comma 2" xfId="1" xr:uid="{1B531170-9C6C-4A39-964C-113A21F47E29}"/>
-    <cellStyle name="Comma 3" xfId="4" xr:uid="{D5C3EF3E-7131-469C-BF89-EE89205C3861}"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Hyperlink 2" xfId="2" xr:uid="{FBE44B3B-0D96-48BC-8348-B937080B663E}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -2658,10 +2637,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DC964A1-A770-4E33-BB58-0E8E87280BEE}">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:A18"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2692,9 +2671,6 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="19" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
@@ -2707,7 +2683,7 @@
         <v>374613</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:D18" si="0">SUM(B2:C2)</f>
+        <f t="shared" ref="D2:D17" si="0">SUM(B2:C2)</f>
         <v>2333764</v>
       </c>
     </row>
@@ -3060,27 +3036,9 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>43856</v>
-      </c>
-      <c r="B18" s="21">
-        <v>6221850</v>
-      </c>
-      <c r="C18" s="21">
-        <v>444011</v>
-      </c>
-      <c r="D18" s="20">
-        <f t="shared" si="0"/>
-        <v>6665861</v>
-      </c>
-    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="H1" r:id="rId1" xr:uid="{138726B2-93E9-4731-99AB-4B12825ED93B}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-  <drawing r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/ronavac_data.xlsx
+++ b/ronavac_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\SoapBar\Documents\Python\rona\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF3D2902-CA50-4E30-A866-54B0FF84C0C1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{52B9E6CD-90B7-4519-B811-114EBA6F0752}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3570" yWindow="2595" windowWidth="15375" windowHeight="7875" xr2:uid="{4CDF3E2D-DBF0-4044-AE06-469E682F427D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4CDF3E2D-DBF0-4044-AE06-469E682F427D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Date</t>
   </si>
@@ -53,6 +53,9 @@
   <si>
     <t>Daily 2ds</t>
   </si>
+  <si>
+    <t>https://www.england.nhs.uk/statistics/statistical-work-areas/covid-19-vaccinations/</t>
+  </si>
 </sst>
 </file>
 
@@ -61,7 +64,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,6 +97,14 @@
       <color rgb="FF000000"/>
       <name val="Verdana"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -147,12 +158,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -184,9 +198,21 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="6">
     <cellStyle name="Comma 2" xfId="1" xr:uid="{1B531170-9C6C-4A39-964C-113A21F47E29}"/>
+    <cellStyle name="Comma 3" xfId="4" xr:uid="{D5C3EF3E-7131-469C-BF89-EE89205C3861}"/>
+    <cellStyle name="Comma 4" xfId="5" xr:uid="{53D3A2D9-20C7-4D10-96A6-11CDAE8911A1}"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Hyperlink 2" xfId="2" xr:uid="{FBE44B3B-0D96-48BC-8348-B937080B663E}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -2637,10 +2663,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DC964A1-A770-4E33-BB58-0E8E87280BEE}">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2671,6 +2697,9 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="H1" s="19" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
@@ -2683,7 +2712,7 @@
         <v>374613</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:D17" si="0">SUM(B2:C2)</f>
+        <f t="shared" ref="D2:D19" si="0">SUM(B2:C2)</f>
         <v>2333764</v>
       </c>
     </row>
@@ -3036,9 +3065,39 @@
         <v>1326</v>
       </c>
     </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>43856</v>
+      </c>
+      <c r="B18" s="21">
+        <v>6221850</v>
+      </c>
+      <c r="C18" s="21">
+        <v>444011</v>
+      </c>
+      <c r="D18" s="20">
+        <f t="shared" si="0"/>
+        <v>6665861</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="23">
+        <v>6473752</v>
+      </c>
+      <c r="C19" s="23">
+        <v>445101</v>
+      </c>
+      <c r="D19" s="22">
+        <f t="shared" si="0"/>
+        <v>6918853</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H1" r:id="rId1" xr:uid="{138726B2-93E9-4731-99AB-4B12825ED93B}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/ronavac_data.xlsx
+++ b/ronavac_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\SoapBar\Documents\Python\rona\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{52B9E6CD-90B7-4519-B811-114EBA6F0752}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96C48DEE-A8BA-47F5-8E1A-85CE9E78539A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4CDF3E2D-DBF0-4044-AE06-469E682F427D}"/>
   </bookViews>
@@ -2666,7 +2666,7 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3081,6 +3081,9 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>43857</v>
+      </c>
       <c r="B19" s="23">
         <v>6473752</v>
       </c>

--- a/ronavac_data.xlsx
+++ b/ronavac_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\SoapBar\Documents\Python\rona\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96C48DEE-A8BA-47F5-8E1A-85CE9E78539A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35F8FB5A-C21B-45C7-9784-A8608CC830F9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4CDF3E2D-DBF0-4044-AE06-469E682F427D}"/>
   </bookViews>
@@ -61,8 +61,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -158,15 +159,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -207,11 +209,20 @@
     <xf numFmtId="3" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="Comma 2" xfId="1" xr:uid="{1B531170-9C6C-4A39-964C-113A21F47E29}"/>
     <cellStyle name="Comma 3" xfId="4" xr:uid="{D5C3EF3E-7131-469C-BF89-EE89205C3861}"/>
     <cellStyle name="Comma 4" xfId="5" xr:uid="{53D3A2D9-20C7-4D10-96A6-11CDAE8911A1}"/>
+    <cellStyle name="Comma 5" xfId="6" xr:uid="{06B0035D-9370-4639-8E9C-22774BA99C3C}"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Hyperlink 2" xfId="2" xr:uid="{FBE44B3B-0D96-48BC-8348-B937080B663E}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2663,10 +2674,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DC964A1-A770-4E33-BB58-0E8E87280BEE}">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2712,7 +2723,7 @@
         <v>374613</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:D19" si="0">SUM(B2:C2)</f>
+        <f t="shared" ref="D2:D21" si="0">SUM(B2:C2)</f>
         <v>2333764</v>
       </c>
     </row>
@@ -3093,6 +3104,36 @@
       <c r="D19" s="22">
         <f t="shared" si="0"/>
         <v>6918853</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>43858</v>
+      </c>
+      <c r="B20" s="25">
+        <v>6816945</v>
+      </c>
+      <c r="C20" s="25">
+        <v>446372</v>
+      </c>
+      <c r="D20" s="24">
+        <f t="shared" si="0"/>
+        <v>7263317</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>43859</v>
+      </c>
+      <c r="B21" s="27">
+        <v>7253305</v>
+      </c>
+      <c r="C21" s="27">
+        <v>447898</v>
+      </c>
+      <c r="D21" s="26">
+        <f t="shared" si="0"/>
+        <v>7701203</v>
       </c>
     </row>
   </sheetData>

--- a/ronavac_data.xlsx
+++ b/ronavac_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\SoapBar\Documents\Python\rona\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35F8FB5A-C21B-45C7-9784-A8608CC830F9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{431A8359-BFC3-4D6E-8155-A3C7FBDD7A99}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4CDF3E2D-DBF0-4044-AE06-469E682F427D}"/>
   </bookViews>
@@ -159,16 +159,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -217,12 +218,17 @@
     <xf numFmtId="3" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="8">
     <cellStyle name="Comma 2" xfId="1" xr:uid="{1B531170-9C6C-4A39-964C-113A21F47E29}"/>
     <cellStyle name="Comma 3" xfId="4" xr:uid="{D5C3EF3E-7131-469C-BF89-EE89205C3861}"/>
     <cellStyle name="Comma 4" xfId="5" xr:uid="{53D3A2D9-20C7-4D10-96A6-11CDAE8911A1}"/>
     <cellStyle name="Comma 5" xfId="6" xr:uid="{06B0035D-9370-4639-8E9C-22774BA99C3C}"/>
+    <cellStyle name="Comma 6" xfId="7" xr:uid="{4F6EF2E4-4C88-4BE9-BE2D-4FD9086EFB01}"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Hyperlink 2" xfId="2" xr:uid="{FBE44B3B-0D96-48BC-8348-B937080B663E}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2674,10 +2680,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DC964A1-A770-4E33-BB58-0E8E87280BEE}">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2723,7 +2729,7 @@
         <v>374613</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:D21" si="0">SUM(B2:C2)</f>
+        <f t="shared" ref="D2:D22" si="0">SUM(B2:C2)</f>
         <v>2333764</v>
       </c>
     </row>
@@ -2765,11 +2771,11 @@
         <v>2661850</v>
       </c>
       <c r="E4" s="16">
-        <f t="shared" ref="E4:E17" si="1">B4-B3</f>
+        <f t="shared" ref="E4:E22" si="1">B4-B3</f>
         <v>174276</v>
       </c>
       <c r="F4" s="16">
-        <f t="shared" ref="F4:F17" si="2">C4-C3</f>
+        <f t="shared" ref="F4:F22" si="2">C4-C3</f>
         <v>13369</v>
       </c>
     </row>
@@ -3090,6 +3096,14 @@
         <f t="shared" si="0"/>
         <v>6665861</v>
       </c>
+      <c r="E18" s="26">
+        <f t="shared" si="1"/>
+        <v>259306</v>
+      </c>
+      <c r="F18" s="28">
+        <f t="shared" si="2"/>
+        <v>1001</v>
+      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
@@ -3105,6 +3119,14 @@
         <f t="shared" si="0"/>
         <v>6918853</v>
       </c>
+      <c r="E19" s="26">
+        <f t="shared" si="1"/>
+        <v>251902</v>
+      </c>
+      <c r="F19" s="28">
+        <f t="shared" si="2"/>
+        <v>1090</v>
+      </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
@@ -3120,6 +3142,14 @@
         <f t="shared" si="0"/>
         <v>7263317</v>
       </c>
+      <c r="E20" s="26">
+        <f t="shared" si="1"/>
+        <v>343193</v>
+      </c>
+      <c r="F20" s="28">
+        <f t="shared" si="2"/>
+        <v>1271</v>
+      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
@@ -3134,6 +3164,37 @@
       <c r="D21" s="26">
         <f t="shared" si="0"/>
         <v>7701203</v>
+      </c>
+      <c r="E21" s="26">
+        <f t="shared" si="1"/>
+        <v>436360</v>
+      </c>
+      <c r="F21" s="28">
+        <f t="shared" si="2"/>
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>43860</v>
+      </c>
+      <c r="B22" s="29">
+        <v>7792996</v>
+      </c>
+      <c r="C22" s="29">
+        <v>458150</v>
+      </c>
+      <c r="D22" s="28">
+        <f t="shared" si="0"/>
+        <v>8251146</v>
+      </c>
+      <c r="E22" s="28">
+        <f t="shared" si="1"/>
+        <v>539691</v>
+      </c>
+      <c r="F22" s="28">
+        <f t="shared" si="2"/>
+        <v>10252</v>
       </c>
     </row>
   </sheetData>

--- a/ronavac_data.xlsx
+++ b/ronavac_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\SoapBar\Documents\Python\rona\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{431A8359-BFC3-4D6E-8155-A3C7FBDD7A99}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52DEA85E-D67F-4252-857C-B7F53CBAF986}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4CDF3E2D-DBF0-4044-AE06-469E682F427D}"/>
+    <workbookView xWindow="3000" yWindow="1545" windowWidth="15375" windowHeight="7875" xr2:uid="{4CDF3E2D-DBF0-4044-AE06-469E682F427D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -65,7 +65,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="167" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,6 +106,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
     </font>
   </fonts>
   <fills count="3">
@@ -159,7 +164,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -167,9 +172,10 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -222,13 +228,29 @@
     <xf numFmtId="3" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="9">
     <cellStyle name="Comma 2" xfId="1" xr:uid="{1B531170-9C6C-4A39-964C-113A21F47E29}"/>
     <cellStyle name="Comma 3" xfId="4" xr:uid="{D5C3EF3E-7131-469C-BF89-EE89205C3861}"/>
     <cellStyle name="Comma 4" xfId="5" xr:uid="{53D3A2D9-20C7-4D10-96A6-11CDAE8911A1}"/>
     <cellStyle name="Comma 5" xfId="6" xr:uid="{06B0035D-9370-4639-8E9C-22774BA99C3C}"/>
     <cellStyle name="Comma 6" xfId="7" xr:uid="{4F6EF2E4-4C88-4BE9-BE2D-4FD9086EFB01}"/>
+    <cellStyle name="Comma 7" xfId="8" xr:uid="{635F316B-2FAE-47C2-9671-CFBAC93813C4}"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Hyperlink 2" xfId="2" xr:uid="{FBE44B3B-0D96-48BC-8348-B937080B663E}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2680,10 +2702,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DC964A1-A770-4E33-BB58-0E8E87280BEE}">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2729,7 +2751,7 @@
         <v>374613</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:D22" si="0">SUM(B2:C2)</f>
+        <f t="shared" ref="D2:D26" si="0">SUM(B2:C2)</f>
         <v>2333764</v>
       </c>
     </row>
@@ -2771,11 +2793,11 @@
         <v>2661850</v>
       </c>
       <c r="E4" s="16">
-        <f t="shared" ref="E4:E22" si="1">B4-B3</f>
+        <f t="shared" ref="E4:E26" si="1">B4-B3</f>
         <v>174276</v>
       </c>
       <c r="F4" s="16">
-        <f t="shared" ref="F4:F22" si="2">C4-C3</f>
+        <f t="shared" ref="F4:F26" si="2">C4-C3</f>
         <v>13369</v>
       </c>
     </row>
@@ -3195,6 +3217,98 @@
       <c r="F22" s="28">
         <f t="shared" si="2"/>
         <v>10252</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>43861</v>
+      </c>
+      <c r="B23" s="32">
+        <v>8082355</v>
+      </c>
+      <c r="C23" s="32">
+        <v>460907</v>
+      </c>
+      <c r="D23" s="31">
+        <f t="shared" si="0"/>
+        <v>8543262</v>
+      </c>
+      <c r="E23" s="30">
+        <f t="shared" si="1"/>
+        <v>289359</v>
+      </c>
+      <c r="F23" s="30">
+        <f t="shared" si="2"/>
+        <v>2757</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>43862</v>
+      </c>
+      <c r="B24" s="34">
+        <v>8362868</v>
+      </c>
+      <c r="C24" s="34">
+        <v>462503</v>
+      </c>
+      <c r="D24" s="33">
+        <f t="shared" si="0"/>
+        <v>8825371</v>
+      </c>
+      <c r="E24" s="30">
+        <f t="shared" si="1"/>
+        <v>280513</v>
+      </c>
+      <c r="F24" s="30">
+        <f t="shared" si="2"/>
+        <v>1596</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>43863</v>
+      </c>
+      <c r="B25" s="34">
+        <v>8663041</v>
+      </c>
+      <c r="C25" s="34">
+        <v>463889</v>
+      </c>
+      <c r="D25" s="33">
+        <f t="shared" si="0"/>
+        <v>9126930</v>
+      </c>
+      <c r="E25" s="30">
+        <f t="shared" si="1"/>
+        <v>300173</v>
+      </c>
+      <c r="F25" s="30">
+        <f t="shared" si="2"/>
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>43864</v>
+      </c>
+      <c r="B26" s="35">
+        <v>9041835</v>
+      </c>
+      <c r="C26" s="36">
+        <v>466171</v>
+      </c>
+      <c r="D26" s="30">
+        <f t="shared" si="0"/>
+        <v>9508006</v>
+      </c>
+      <c r="E26" s="30">
+        <f t="shared" si="1"/>
+        <v>378794</v>
+      </c>
+      <c r="F26" s="30">
+        <f t="shared" si="2"/>
+        <v>2282</v>
       </c>
     </row>
   </sheetData>
